--- a/data/trans_camb/P18_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,72</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,56</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 2,45</t>
+          <t>-16,54; 29,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 9,46</t>
+          <t>-19,86; 27,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 5,74</t>
+          <t>-19,17; 28,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -3,98</t>
+          <t>-8,4; 34,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 9,89</t>
+          <t>-7,54; 28,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 10,73</t>
+          <t>-22,18; 17,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,08; -4,69</t>
+          <t>-22,87; 17,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 5,05</t>
+          <t>-14,62; 24,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 3,18</t>
+          <t>-3,63; 24,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 18,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,8; 16,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 24,71</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,81%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,29%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,99%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,67%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,44%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,95%</t>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,67; 17,17</t>
+          <t>-21,27; 60,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,66; 42,18</t>
+          <t>-26,15; 52,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 27,79</t>
+          <t>-25,41; 53,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -10,51</t>
+          <t>-11,29; 70,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 33,31</t>
+          <t>-9,7; 54,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 33,39</t>
+          <t>-29,99; 32,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,56; -14,17</t>
+          <t>-30,85; 32,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 16,97</t>
+          <t>-18,93; 44,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 10,13</t>
+          <t>-4,88; 43,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,88; 32,43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 29,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 44,1</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>-30,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-40,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,73</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-27,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 0,18</t>
+          <t>-11,2; 15,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 37,11</t>
+          <t>-59,88; -6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 4,14</t>
+          <t>-17,04; 13,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 9,71</t>
+          <t>-68,53; -14,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 16,35</t>
+          <t>-6,73; 25,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 16,13</t>
+          <t>-8,09; 24,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 2,12</t>
+          <t>-11,29; 21,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 21,55</t>
+          <t>-30,85; 4,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 6,64</t>
+          <t>-4,78; 17,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-32,22; 3,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 15,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-48,05; -10,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-54,36%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>-34,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,7%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>-46,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-14,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-35,12%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,78; 12,16</t>
+          <t>-12,29; 19,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 341,55</t>
+          <t>-65,78; -8,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,8; 40,41</t>
+          <t>-18,57; 16,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,03; 72,97</t>
+          <t>-77,83; -17,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 114,96</t>
+          <t>-8,28; 40,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 125,72</t>
+          <t>-10,13; 40,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,3; 19,94</t>
+          <t>-14,18; 34,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 152,32</t>
+          <t>-39,42; 7,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 51,2</t>
+          <t>-5,59; 24,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,62; 3,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 22,01</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-59,02; -14,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-17,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>-14,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,78</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-12,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-9,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 31,69</t>
+          <t>-27,89; -2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 20,95</t>
+          <t>-18,95; 4,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 24,28</t>
+          <t>-30,88; -4,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 4,25</t>
+          <t>-27,74; -0,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 11,61</t>
+          <t>-5,55; 15,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 16,91</t>
+          <t>-13,66; 9,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 13,25</t>
+          <t>-20,02; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,68</t>
+          <t>-17,89; 5,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 17,19</t>
+          <t>-11,6; 4,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 3,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-21,29; -2,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 0,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>-8,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>-19,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>-3,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>-3,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-11,08%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 308,46</t>
+          <t>-30,13; -3,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 214,73</t>
+          <t>-20,07; 4,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 276,71</t>
+          <t>-32,88; -4,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 30,94</t>
+          <t>-29,95; -1,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 86,41</t>
+          <t>-6,34; 20,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 117,61</t>
+          <t>-16,59; 11,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 101,3</t>
+          <t>-24,13; 5,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 88,9</t>
+          <t>-21,39; 7,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 124,98</t>
+          <t>-13,32; 6,17</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 4,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-24,22; -2,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 0,31</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-12,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>-9,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-5,35</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-10,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 3,53</t>
+          <t>-7,22; 14,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 17,49</t>
+          <t>-12,25; 11,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 13,18</t>
+          <t>-16,19; 8,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 5,3</t>
+          <t>-26,34; -0,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 13,39</t>
+          <t>-9,14; 14,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 19,84</t>
+          <t>-21,49; 2,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 1,39</t>
+          <t>-21,11; 5,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 12,2</t>
+          <t>-22,38; 2,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 13,94</t>
+          <t>-5,67; 10,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 2,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; 3,11</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-20,27; -1,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,14%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>-14,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>-13,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>-13,25%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,5%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-13,8%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,92; 37,07</t>
+          <t>-8,22; 18,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 152,51</t>
+          <t>-13,8; 13,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 120,29</t>
+          <t>-18,42; 10,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 22,86</t>
+          <t>-30,19; -0,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 58,0</t>
+          <t>-12,09; 20,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 85,92</t>
+          <t>-27,74; 3,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 7,39</t>
+          <t>-27,02; 8,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 62,52</t>
+          <t>-28,48; 2,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 71,05</t>
+          <t>-6,84; 14,5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 3,62</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-17,71; 4,26</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; -2,36</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-8,62</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-6,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 10,2</t>
+          <t>-10,71; 14,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 19,07</t>
+          <t>-22,75; 10,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 20,76</t>
+          <t>-24,18; 6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 6,58</t>
+          <t>-21,93; 8,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 5,2</t>
+          <t>-4,78; 28,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 18,31</t>
+          <t>-9,08; 25,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 6,06</t>
+          <t>-27,24; 9,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 10,72</t>
+          <t>-24,32; 11,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 15,85</t>
+          <t>-4,45; 15,14</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-13,41; 12,02</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-21,65; 1,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-18,25; 4,86</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>-7,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-24,49%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 134,14</t>
+          <t>-11,77; 17,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 223,05</t>
+          <t>-26,71; 12,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 235,78</t>
+          <t>-27,17; 7,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 40,83</t>
+          <t>-25,22; 10,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 30,54</t>
+          <t>-5,39; 46,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 116,27</t>
+          <t>-10,94; 41,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 47,38</t>
+          <t>-34,26; 14,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 77,27</t>
+          <t>-31,61; 17,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 119,75</t>
+          <t>-5,14; 21,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-15,94; 15,95</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,66; 1,66</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,06; 6,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-12,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-6,09</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-10,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 11,47</t>
+          <t>-13,51; 4,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 15,11</t>
+          <t>-11,7; 4,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 17,77</t>
+          <t>-21,87; 0,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 13,09</t>
+          <t>-28,29; -2,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 20,34</t>
+          <t>-21,29; 18,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 18,77</t>
+          <t>-16,8; 22,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 10,09</t>
+          <t>-26,61; 15,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 16,81</t>
+          <t>-28,89; 13,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,31</t>
+          <t>-13,81; 10,0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 12,65</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-19,86; 6,75</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-23,69; 3,89</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>107,5%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>136,59%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 499,82</t>
+          <t>-13,59; 4,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 630,11</t>
+          <t>-12,02; 5,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 697,62</t>
+          <t>-23,59; 0,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 82,83</t>
+          <t>-28,85; -2,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 117,6</t>
+          <t>-26,31; 33,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 104,21</t>
+          <t>-22,19; 37,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 89,53</t>
+          <t>-34,51; 25,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 142,54</t>
+          <t>-37,78; 23,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 149,0</t>
+          <t>-15,98; 13,1</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 16,34</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 8,82</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-27,38; 4,94</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-14,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-10,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,73</t>
+          <t>-6,38; 5,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,65</t>
+          <t>-17,77; -0,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,28</t>
+          <t>-13,73; -0,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,1</t>
+          <t>-26,85; -5,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,41</t>
+          <t>-0,26; 11,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,93</t>
+          <t>-6,96; 5,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,49</t>
+          <t>-11,61; 1,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,39</t>
+          <t>-13,55; -0,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,0</t>
+          <t>-1,42; 6,94</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 1,06</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; -0,16</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; -5,11</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>-9,35%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 44,99</t>
+          <t>-7,2; 6,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,32; 97,88</t>
+          <t>-20,46; -0,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 62,27</t>
+          <t>-15,64; -0,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 0,6</t>
+          <t>-30,83; -6,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 28,65</t>
+          <t>-0,37; 16,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 43,08</t>
+          <t>-9,28; 8,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 3,25</t>
+          <t>-15,24; 1,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 39,45</t>
+          <t>-17,84; -0,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,79; 37,04</t>
+          <t>-1,81; 9,06</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 1,25</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; -0,19</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-21,49; -6,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
